--- a/biology/Botanique/Eremocitrus_glauca/Eremocitrus_glauca.xlsx
+++ b/biology/Botanique/Eremocitrus_glauca/Eremocitrus_glauca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Citrus glauca est une espèce végétale de la famille des Rutaceae. Anciennement nommé Eremocitrus jusqu'en 2007, elle a été reclassée dans le genre Citrus, tout en reconnaissant son appartenance au groupe particulier des citrus australiens.
 C'est un arbre épineux de 3 à 7 mètres de haut, endémique des régions semi-arides du Queensland, de Nouvelle-Galles du Sud et d'Australie-Méridionale en Australie.
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le feuillage est verdâtre avec des feuilles oblongues de 5 centimètres de long sur 5 millimètres de large. Les fleurs, blanches ou vertes, apparaissent à la fin de l'hiver ou au début du printemps. Le fruit est le plus rapide de la famille à se former (8 semaine à partir de la fécondation). Curieusement, les fruits sont le plus souvent dépourvus de graines dans son habitat naturel.
 Le fruit peut faire jusqu'à 2 cm de diamètre. Il est largement utilisé dans un grand nombre de produits : marmelade, boissons, fruits givrés. Il a un fort goût de citron vert.
 Il est largement présent et exploité dans les zones du bush qui n'ont pas été mises en valeur mais il a fortement diminué dans les zones agricoles. La culture commerciale a cependant débuté et réduit le prélèvement des fruits sauvages.
-C. glauca est la seule espèce xérophyte du groupe des agrumes (complexe Citrus/Fortunella/Poncirus). Elle est également des plus résistantes à la chaleur (plus de 45 °C) et au froid (jusqu'à −10 °C [1] et supporte très bien le calcaire et les chlorures ainsi que l'intoxication au bore. Ces caractéristiques en font un élément important dans les programmes d'hybridations modernes.
+C. glauca est la seule espèce xérophyte du groupe des agrumes (complexe Citrus/Fortunella/Poncirus). Elle est également des plus résistantes à la chaleur (plus de 45 °C) et au froid (jusqu'à −10 °C  et supporte très bien le calcaire et les chlorures ainsi que l'intoxication au bore. Ces caractéristiques en font un élément important dans les programmes d'hybridations modernes.
 Une espèce proche, C. gracilis, a été récemment décrite par D.J. Mabberley. Surnommé 'Kakadu lime' elle pousse dans les forêts d'eucalyptus du Territoire du nord. L'épithète gracilis renvoie à l'aspect des tiges fleuries. Ses feuilles ressemblent aux Citrus de nouvelle-guinée (M. wintersii et M. warburgiana). Son fruit est rond de 8-10 cm de diamètre.
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Variétés et hybrides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 'Australian Outback'  variétés non épineuse sélectionnée en 1990
  'Citrangeremos'  - (C. glauca × Citrange)
@@ -580,7 +596,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">pH de 7 ou plus
 </t>
@@ -611,7 +629,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Atalantia glauca (Lindl.) Benth.
 Citrus glauca (Lindl.) Burkill
